--- a/td.xlsx
+++ b/td.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="30720" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="1656" windowWidth="30720" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="nd" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -306,85 +306,22 @@
     <t>RUS_DFO_CHU</t>
   </si>
   <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>ДАААА</t>
-  </si>
-  <si>
-    <t>НЕЕЕЕ</t>
-  </si>
-  <si>
-    <t>МБ</t>
-  </si>
-  <si>
-    <t>авиеа</t>
-  </si>
-  <si>
-    <t>авни</t>
-  </si>
-  <si>
-    <t>аивп</t>
-  </si>
-  <si>
-    <t>иваепнр</t>
-  </si>
-  <si>
-    <t>аивпнр</t>
-  </si>
-  <si>
-    <t>иквепи</t>
-  </si>
-  <si>
-    <t>паи</t>
-  </si>
-  <si>
-    <t>при</t>
-  </si>
-  <si>
-    <t>ивпр</t>
-  </si>
-  <si>
-    <t>и</t>
-  </si>
-  <si>
-    <t>ит</t>
-  </si>
-  <si>
-    <t>ати</t>
-  </si>
-  <si>
-    <t>вани</t>
-  </si>
-  <si>
-    <t>тие</t>
-  </si>
-  <si>
-    <t>е</t>
-  </si>
-  <si>
-    <t>арти</t>
-  </si>
-  <si>
-    <t>нгт</t>
-  </si>
-  <si>
-    <t>тп</t>
-  </si>
-  <si>
-    <t>тт</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>т</t>
-  </si>
-  <si>
-    <t>еап</t>
+    <t>Заголовок 1</t>
+  </si>
+  <si>
+    <t>Заголовок 2</t>
+  </si>
+  <si>
+    <t>Заголовок 3</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>много текста</t>
+  </si>
+  <si>
+    <t>мало текста</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1149,7 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1225,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
         <v>100</v>
@@ -1253,13 +1190,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,13 +1204,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,13 +1218,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,13 +1232,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,13 +1246,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,13 +1260,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1351,13 +1288,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1365,13 +1302,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1379,13 +1316,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1393,13 +1330,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1407,13 +1344,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1421,13 +1358,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1435,10 +1372,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,13 +1386,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,13 +1400,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,10 +1414,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1485,13 +1428,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1499,13 +1442,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1513,13 +1456,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1527,10 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1538,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1552,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1566,13 +1512,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1580,10 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1605,13 +1554,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,13 +1568,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1633,13 +1582,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1647,10 +1596,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1658,10 +1607,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1669,10 +1618,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1680,10 +1629,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1691,10 +1640,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1702,10 +1651,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1713,10 +1662,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1724,10 +1673,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1735,10 +1684,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1746,10 +1695,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1757,10 +1706,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1768,10 +1717,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1779,10 +1728,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1790,10 +1739,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1801,10 +1750,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1812,10 +1761,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1823,10 +1772,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1834,10 +1783,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1845,10 +1794,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1856,10 +1805,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1867,10 +1816,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1878,10 +1827,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1889,10 +1838,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1900,10 +1849,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1911,10 +1860,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1922,10 +1871,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1933,10 +1882,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1944,10 +1893,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1955,10 +1904,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1966,10 +1915,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1977,10 +1926,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1988,10 +1937,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1999,10 +1948,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2010,10 +1959,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2021,10 +1970,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2032,10 +1981,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2043,10 +1992,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2054,10 +2003,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2065,10 +2014,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2076,10 +2025,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2087,10 +2036,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2098,10 +2047,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2109,10 +2058,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2120,10 +2069,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2131,10 +2080,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2142,10 +2091,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2153,10 +2102,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2164,10 +2113,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2175,10 +2124,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2186,10 +2135,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2197,10 +2146,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2208,10 +2157,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2219,10 +2168,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2230,10 +2179,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2241,10 +2190,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2252,10 +2201,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2263,10 +2212,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2274,10 +2223,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2285,10 +2234,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2296,10 +2245,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2307,7 +2256,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2315,7 +2267,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2323,7 +2278,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2331,7 +2289,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
